--- a/15_反復計画書.xlsx
+++ b/15_反復計画書.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A29CC18-FE5B-4116-9C7C-F46C24ABF76B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC336C13-BF47-4F68-89BA-041B7318B11D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="630" windowWidth="18375" windowHeight="10290" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレート" sheetId="4" r:id="rId1"/>
-    <sheet name="サンプル" sheetId="1" r:id="rId2"/>
+    <sheet name="三目並べゲーム" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1469,7 +1469,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1676,6 +1676,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -1859,23 +1874,12 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8EF2D54-1F49-449C-9A26-6F6AFFFA5508}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1888,9 +1892,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8EF2D54-1F49-449C-9A26-6F6AFFFA5508}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/15_反復計画書.xlsx
+++ b/15_反復計画書.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC336C13-BF47-4F68-89BA-041B7318B11D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{6A29CC18-FE5B-4116-9C7C-F46C24ABF76B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C3C2CEEF-4D8E-44C3-B4A9-FE36BA32524C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="630" windowWidth="18375" windowHeight="10290" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレート" sheetId="4" r:id="rId1"/>
-    <sheet name="三目並べゲーム" sheetId="1" r:id="rId2"/>
+    <sheet name="サンプル" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -144,6 +146,40 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>2020/6/2AM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/6/5PM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/6/10PM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/6/5AM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/6/10AM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/6/15AM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.5日間</t>
+    <rPh sb="3" eb="4">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アイダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>3日間</t>
     <rPh sb="1" eb="2">
       <t>ニチ</t>
@@ -161,40 +197,6 @@
     <rPh sb="2" eb="3">
       <t>アイダ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2020/6/5AM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2020/6/5PM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.5日間</t>
-    <rPh sb="3" eb="4">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>アイダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2020/6/10AM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2020/6/10PM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2020/6/15AM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2020/6/2AM</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -255,118 +257,18 @@
 設計仕様書(新規作成)
 テスト計画書(新規作成)
 テスト済のソースコード(新規作成)
-反復の振り返りをする。</t>
-    <rPh sb="0" eb="2">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ケイカクショ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>シヨウショ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ブンセキ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="71" eb="74">
-      <t>ケイカクショ</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>スミ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="104" eb="105">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>反復計画書(更新)
+開発体験シート（新規作成）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">反復計画書(更新)
 WBS&amp;ガントチャート(更新)
 要求仕様書(更新)
 システム分析書(更新)
 設計仕様書(更新)
 テスト計画書(更新)
 テスト済のソースコード(更新)
-反復の振り返りをする。</t>
-    <rPh sb="0" eb="2">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ケイカクショ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <rPh sb="28" eb="31">
-      <t>シヨウショ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ブンセキ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="61" eb="64">
-      <t>ケイカクショ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>スミ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+開発シート（更新）
+</t>
   </si>
   <si>
     <t>反復計画書(更新)
@@ -377,71 +279,7 @@
 テスト計画書(更新)
 テスト済のソースコード(更新)
 発表資料(新規作成)
-反復の振り返りをする。</t>
-    <rPh sb="0" eb="2">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ケイカクショ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <rPh sb="28" eb="31">
-      <t>シヨウショ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ブンセキ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="61" eb="64">
-      <t>ケイカクショ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>スミ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>ハッピョウ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>シリョウ</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+開発シート（更新）</t>
   </si>
 </sst>
 </file>
@@ -451,7 +289,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -965,7 +803,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1291,7 +1129,7 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
@@ -1300,7 +1138,7 @@
     <col min="5" max="5" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -1309,28 +1147,28 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="39"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="39"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="14.25" thickBot="1">
       <c r="A4" s="40"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
@@ -1345,7 +1183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="19"/>
       <c r="B6" s="14" t="s">
         <v>5</v>
@@ -1354,7 +1192,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="19"/>
       <c r="B7" s="14" t="s">
         <v>6</v>
@@ -1363,7 +1201,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="19"/>
       <c r="B8" s="14" t="s">
         <v>7</v>
@@ -1372,7 +1210,7 @@
       <c r="D8" s="20"/>
       <c r="E8" s="21"/>
     </row>
-    <row r="9" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="99" customHeight="1">
       <c r="A9" s="19"/>
       <c r="B9" s="14" t="s">
         <v>8</v>
@@ -1381,7 +1219,7 @@
       <c r="D9" s="25"/>
       <c r="E9" s="26"/>
     </row>
-    <row r="10" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="81.75" customHeight="1">
       <c r="A10" s="19"/>
       <c r="B10" s="14" t="s">
         <v>9</v>
@@ -1396,7 +1234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="14.25" thickBot="1">
       <c r="A11" s="19"/>
       <c r="B11" s="14" t="s">
         <v>11</v>
@@ -1405,7 +1243,7 @@
       <c r="D11" s="20"/>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1416,7 +1254,7 @@
       <c r="D12" s="12"/>
       <c r="E12" s="13"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="23" t="s">
         <v>6</v>
@@ -1425,7 +1263,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="23" t="s">
         <v>7</v>
@@ -1434,7 +1272,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="93" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="23" t="s">
         <v>9</v>
@@ -1443,7 +1281,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
       <c r="A16" s="7"/>
       <c r="B16" s="24" t="s">
         <v>11</v>
@@ -1468,11 +1306,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
@@ -1481,7 +1319,7 @@
     <col min="5" max="5" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="21" customHeight="1">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -1492,7 +1330,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="21" customHeight="1">
       <c r="A2" s="39"/>
       <c r="B2" s="4" t="s">
         <v>14</v>
@@ -1501,7 +1339,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="39"/>
       <c r="B3" s="4" t="s">
         <v>15</v>
@@ -1510,14 +1348,14 @@
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="14.25" thickBot="1">
       <c r="A4" s="40"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
@@ -1532,52 +1370,52 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="19"/>
       <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="19"/>
       <c r="B7" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="19"/>
       <c r="B8" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="76.5" customHeight="1">
       <c r="A9" s="19"/>
       <c r="B9" s="14" t="s">
         <v>8</v>
@@ -1592,7 +1430,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="139.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="139.5" customHeight="1">
       <c r="A10" s="19"/>
       <c r="B10" s="14" t="s">
         <v>9</v>
@@ -1607,7 +1445,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="37"/>
       <c r="B11" s="14" t="s">
         <v>11</v>
@@ -1616,7 +1454,7 @@
       <c r="D11" s="10"/>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -1627,7 +1465,7 @@
       <c r="D12" s="35"/>
       <c r="E12" s="36"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="23" t="s">
         <v>6</v>
@@ -1636,7 +1474,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="23" t="s">
         <v>7</v>
@@ -1645,7 +1483,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="42.75" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="23" t="s">
         <v>9</v>
@@ -1654,7 +1492,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="14.25" thickBot="1">
       <c r="A16" s="7"/>
       <c r="B16" s="24" t="s">
         <v>11</v>
@@ -1676,21 +1514,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -1874,37 +1697,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8EF2D54-1F49-449C-9A26-6F6AFFFA5508}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8EF2D54-1F49-449C-9A26-6F6AFFFA5508}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}"/>
 </file>